--- a/ah/ah_excel/example.xlsx
+++ b/ah/ah_excel/example.xlsx
@@ -465,8 +465,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="E3" s="3" t="n">
-        <v>2</v>
+      <c r="E3" s="3">
+        <f>10*20</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="2">
